--- a/regions/11/soflis meurneoba/1. erttsliani kulturebi.xlsx
+++ b/regions/11/soflis meurneoba/1. erttsliani kulturebi.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\ITSIKHELASHVILI\ENV_Shared\რეგიონული სტატისტიკის პორტალი\მცხეთა-მთიანეთი\GEO\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tsmelashvili\Desktop\რეგიონული სტატისტიკის პორტალი_2023\მცხეთა-მთიანეთი\GEO\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="489" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="510" uniqueCount="20">
   <si>
     <t>ხორბალი</t>
   </si>
@@ -95,11 +95,14 @@
       <t>: 2006-2015 წლების გამოკვლევების შერჩევის ბაზის ძირითად წყაროს წარმოადგენდა 2004 წლის სასოფლო-სამეურნეო აღწერა, ხოლო 2016-2021 წლების გამოკვლევის შერჩევის ბაზა განახლდა და დაეფუძნა 2014 წლის სასოფლო-სამეურნეო აღწერას. აღნიშნულიდან გამომდინარე, 2014-2021 წლების მაჩვენებლების შესადარისობის უზრუნველყოფის მიზნით,  განხორციელდა 2014 და 2015 წლების მონაცემების გადაანგარიშება. შესაბამისად, 2014-2021 წლების მონაცემები შესადარისი არ არის 2006-2013 წლების მონაცემებთან.</t>
     </r>
   </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
@@ -182,7 +185,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -200,15 +203,6 @@
       <top style="thin">
         <color indexed="64"/>
       </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
       <bottom style="thin">
         <color indexed="64"/>
       </bottom>
@@ -243,10 +237,10 @@
     <xf numFmtId="164" fontId="9" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
@@ -264,7 +258,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -571,10 +565,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q49"/>
+  <dimension ref="A1:S49"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:Q1"/>
+      <selection sqref="A1:S1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -584,7 +578,7 @@
     <col min="18" max="16384" width="8.85546875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:19" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="16" t="s">
         <v>12</v>
       </c>
@@ -604,8 +598,10 @@
       <c r="O1" s="16"/>
       <c r="P1" s="16"/>
       <c r="Q1" s="16"/>
-    </row>
-    <row r="2" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="R1" s="16"/>
+      <c r="S1" s="16"/>
+    </row>
+    <row r="2" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
@@ -657,8 +653,14 @@
       <c r="Q2" s="6">
         <v>2021</v>
       </c>
-    </row>
-    <row r="3" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="R2" s="6">
+        <v>2022</v>
+      </c>
+      <c r="S2" s="6">
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
         <v>13</v>
       </c>
@@ -710,8 +712,14 @@
       <c r="Q3" s="7" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="4" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="R3" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="S3" s="7" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
         <v>14</v>
       </c>
@@ -763,8 +771,12 @@
       <c r="Q4" s="7" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="5" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="R4" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="S4" s="7"/>
+    </row>
+    <row r="5" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
         <v>1</v>
       </c>
@@ -816,8 +828,12 @@
       <c r="Q5" s="7" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="6" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="R5" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="S5" s="7"/>
+    </row>
+    <row r="6" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="3" t="s">
         <v>2</v>
       </c>
@@ -869,8 +885,12 @@
       <c r="Q6" s="7" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="7" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="R6" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="S6" s="7"/>
+    </row>
+    <row r="7" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
         <v>3</v>
       </c>
@@ -922,8 +942,12 @@
       <c r="Q7" s="6">
         <v>2021</v>
       </c>
-    </row>
-    <row r="8" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="R7" s="6">
+        <v>2022</v>
+      </c>
+      <c r="S7" s="6"/>
+    </row>
+    <row r="8" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="3" t="s">
         <v>13</v>
       </c>
@@ -975,8 +999,12 @@
       <c r="Q8" s="7" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="9" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="R8" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="S8" s="7"/>
+    </row>
+    <row r="9" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="3" t="s">
         <v>14</v>
       </c>
@@ -1028,8 +1056,12 @@
       <c r="Q9" s="7" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="10" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="R9" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="S9" s="7"/>
+    </row>
+    <row r="10" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="3" t="s">
         <v>4</v>
       </c>
@@ -1081,8 +1113,12 @@
       <c r="Q10" s="7" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="11" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="R10" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="S10" s="7"/>
+    </row>
+    <row r="11" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="3" t="s">
         <v>2</v>
       </c>
@@ -1134,8 +1170,12 @@
       <c r="Q11" s="7" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="12" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="R11" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="S11" s="7"/>
+    </row>
+    <row r="12" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="2" t="s">
         <v>5</v>
       </c>
@@ -1187,8 +1227,14 @@
       <c r="Q12" s="6">
         <v>2021</v>
       </c>
-    </row>
-    <row r="13" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="R12" s="6">
+        <v>2022</v>
+      </c>
+      <c r="S12" s="6">
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="3" t="s">
         <v>13</v>
       </c>
@@ -1240,8 +1286,14 @@
       <c r="Q13" s="8">
         <v>1.5</v>
       </c>
-    </row>
-    <row r="14" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="R13" s="8">
+        <v>1.2</v>
+      </c>
+      <c r="S13" s="8">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="3" t="s">
         <v>14</v>
       </c>
@@ -1293,8 +1345,14 @@
       <c r="Q14" s="8">
         <v>1.3</v>
       </c>
-    </row>
-    <row r="15" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="R14" s="8">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="S14" s="8">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="3" t="s">
         <v>4</v>
       </c>
@@ -1346,8 +1404,14 @@
       <c r="Q15" s="8">
         <v>3.1</v>
       </c>
-    </row>
-    <row r="16" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="R15" s="8">
+        <v>2.7</v>
+      </c>
+      <c r="S15" s="8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="3" t="s">
         <v>2</v>
       </c>
@@ -1399,8 +1463,14 @@
       <c r="Q16" s="8">
         <v>2.2999999999999998</v>
       </c>
-    </row>
-    <row r="17" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="R16" s="8">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="S16" s="8">
+        <v>3.5</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="2" t="s">
         <v>6</v>
       </c>
@@ -1452,8 +1522,14 @@
       <c r="Q17" s="6">
         <v>2021</v>
       </c>
-    </row>
-    <row r="18" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="R17" s="6">
+        <v>2022</v>
+      </c>
+      <c r="S17" s="6">
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="3" t="s">
         <v>13</v>
       </c>
@@ -1505,8 +1581,14 @@
       <c r="Q18" s="8">
         <v>0.4</v>
       </c>
-    </row>
-    <row r="19" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="R18" s="8">
+        <v>0.4</v>
+      </c>
+      <c r="S18" s="8">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="3" t="s">
         <v>14</v>
       </c>
@@ -1558,8 +1640,14 @@
       <c r="Q19" s="8">
         <v>0.3</v>
       </c>
-    </row>
-    <row r="20" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="R19" s="8">
+        <v>0.4</v>
+      </c>
+      <c r="S19" s="8">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="3" t="s">
         <v>4</v>
       </c>
@@ -1611,8 +1699,14 @@
       <c r="Q20" s="8">
         <v>0.3</v>
       </c>
-    </row>
-    <row r="21" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="R20" s="8">
+        <v>0.3</v>
+      </c>
+      <c r="S20" s="8">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="3" t="s">
         <v>2</v>
       </c>
@@ -1664,8 +1758,14 @@
       <c r="Q21" s="8">
         <v>0.7</v>
       </c>
-    </row>
-    <row r="22" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="R21" s="8">
+        <v>0.6</v>
+      </c>
+      <c r="S21" s="8">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="2" t="s">
         <v>7</v>
       </c>
@@ -1717,8 +1817,14 @@
       <c r="Q22" s="6">
         <v>2021</v>
       </c>
-    </row>
-    <row r="23" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="R22" s="6">
+        <v>2022</v>
+      </c>
+      <c r="S22" s="6">
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="3" t="s">
         <v>13</v>
       </c>
@@ -1770,8 +1876,14 @@
       <c r="Q23" s="7">
         <v>0.4</v>
       </c>
-    </row>
-    <row r="24" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="R23" s="7">
+        <v>0.4</v>
+      </c>
+      <c r="S23" s="7">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="3" t="s">
         <v>14</v>
       </c>
@@ -1823,8 +1935,14 @@
       <c r="Q24" s="7">
         <v>0.4</v>
       </c>
-    </row>
-    <row r="25" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="R24" s="7">
+        <v>0.4</v>
+      </c>
+      <c r="S24" s="7">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="3" t="s">
         <v>4</v>
       </c>
@@ -1876,8 +1994,14 @@
       <c r="Q25" s="7">
         <v>2.4</v>
       </c>
-    </row>
-    <row r="26" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="R25" s="7">
+        <v>3.7</v>
+      </c>
+      <c r="S25" s="7">
+        <v>3.3</v>
+      </c>
+    </row>
+    <row r="26" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="3" t="s">
         <v>2</v>
       </c>
@@ -1929,8 +2053,14 @@
       <c r="Q26" s="7">
         <v>5.8</v>
       </c>
-    </row>
-    <row r="27" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="R26" s="7">
+        <v>8.6999999999999993</v>
+      </c>
+      <c r="S26" s="7">
+        <v>5.7</v>
+      </c>
+    </row>
+    <row r="27" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="2" t="s">
         <v>8</v>
       </c>
@@ -1982,8 +2112,14 @@
       <c r="Q27" s="6">
         <v>2021</v>
       </c>
-    </row>
-    <row r="28" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="R27" s="6">
+        <v>2022</v>
+      </c>
+      <c r="S27" s="6">
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="28" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="3" t="s">
         <v>13</v>
       </c>
@@ -2035,8 +2171,14 @@
       <c r="Q28" s="7">
         <v>0.3</v>
       </c>
-    </row>
-    <row r="29" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="R28" s="7">
+        <v>0.4</v>
+      </c>
+      <c r="S28" s="7">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="29" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="3" t="s">
         <v>14</v>
       </c>
@@ -2088,8 +2230,14 @@
       <c r="Q29" s="7">
         <v>0.3</v>
       </c>
-    </row>
-    <row r="30" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="R29" s="7">
+        <v>0.4</v>
+      </c>
+      <c r="S29" s="7">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="30" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" s="3" t="s">
         <v>4</v>
       </c>
@@ -2141,8 +2289,14 @@
       <c r="Q30" s="7">
         <v>1.7</v>
       </c>
-    </row>
-    <row r="31" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="R30" s="7">
+        <v>1.8</v>
+      </c>
+      <c r="S30" s="7">
+        <v>1.7</v>
+      </c>
+    </row>
+    <row r="31" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" s="3" t="s">
         <v>2</v>
       </c>
@@ -2194,8 +2348,14 @@
       <c r="Q31" s="7">
         <v>4.7</v>
       </c>
-    </row>
-    <row r="32" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="R31" s="8">
+        <v>4</v>
+      </c>
+      <c r="S31" s="8">
+        <v>3.9</v>
+      </c>
+    </row>
+    <row r="32" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32" s="2" t="s">
         <v>9</v>
       </c>
@@ -2247,8 +2407,14 @@
       <c r="Q32" s="6">
         <v>2021</v>
       </c>
-    </row>
-    <row r="33" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="R32" s="6">
+        <v>2022</v>
+      </c>
+      <c r="S32" s="6">
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="33" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33" s="3" t="s">
         <v>13</v>
       </c>
@@ -2300,8 +2466,12 @@
       <c r="Q33" s="7" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="34" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="R33" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="S33" s="7"/>
+    </row>
+    <row r="34" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A34" s="3" t="s">
         <v>14</v>
       </c>
@@ -2353,8 +2523,12 @@
       <c r="Q34" s="7" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="35" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="R34" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="S34" s="7"/>
+    </row>
+    <row r="35" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A35" s="3" t="s">
         <v>4</v>
       </c>
@@ -2406,8 +2580,12 @@
       <c r="Q35" s="7" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="36" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="R35" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="S35" s="7"/>
+    </row>
+    <row r="36" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A36" s="3" t="s">
         <v>2</v>
       </c>
@@ -2459,8 +2637,12 @@
       <c r="Q36" s="7" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="37" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="R36" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="S36" s="7"/>
+    </row>
+    <row r="37" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A37" s="2" t="s">
         <v>10</v>
       </c>
@@ -2512,8 +2694,14 @@
       <c r="Q37" s="6">
         <v>2021</v>
       </c>
-    </row>
-    <row r="38" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="R37" s="6">
+        <v>2022</v>
+      </c>
+      <c r="S37" s="6">
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="38" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A38" s="3" t="s">
         <v>13</v>
       </c>
@@ -2565,8 +2753,12 @@
       <c r="Q38" s="7" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="39" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="R38" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="S38" s="7"/>
+    </row>
+    <row r="39" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A39" s="3" t="s">
         <v>14</v>
       </c>
@@ -2618,8 +2810,12 @@
       <c r="Q39" s="7" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="40" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="R39" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="S39" s="7"/>
+    </row>
+    <row r="40" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A40" s="3" t="s">
         <v>4</v>
       </c>
@@ -2671,8 +2867,12 @@
       <c r="Q40" s="7" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="41" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="R40" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="S40" s="7"/>
+    </row>
+    <row r="41" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A41" s="3" t="s">
         <v>2</v>
       </c>
@@ -2724,8 +2924,12 @@
       <c r="Q41" s="7" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="42" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="R41" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="S41" s="7"/>
+    </row>
+    <row r="42" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A42" s="2" t="s">
         <v>11</v>
       </c>
@@ -2777,8 +2981,14 @@
       <c r="Q42" s="6">
         <v>2021</v>
       </c>
-    </row>
-    <row r="43" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="R42" s="6">
+        <v>2022</v>
+      </c>
+      <c r="S42" s="6">
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="43" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A43" s="3" t="s">
         <v>13</v>
       </c>
@@ -2830,8 +3040,12 @@
       <c r="Q43" s="7" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="44" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="R43" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="S43" s="7"/>
+    </row>
+    <row r="44" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A44" s="3" t="s">
         <v>14</v>
       </c>
@@ -2883,8 +3097,12 @@
       <c r="Q44" s="7" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="45" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="R44" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="S44" s="7"/>
+    </row>
+    <row r="45" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A45" s="3" t="s">
         <v>4</v>
       </c>
@@ -2936,8 +3154,12 @@
       <c r="Q45" s="7" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="46" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="R45" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="S45" s="7"/>
+    </row>
+    <row r="46" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A46" s="3" t="s">
         <v>2</v>
       </c>
@@ -2989,8 +3211,12 @@
       <c r="Q46" s="7" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="47" spans="1:17" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="R46" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="S46" s="7"/>
+    </row>
+    <row r="47" spans="1:19" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="9" t="s">
         <v>17</v>
       </c>
@@ -3011,7 +3237,7 @@
       <c r="P47" s="9"/>
       <c r="Q47" s="10"/>
     </row>
-    <row r="48" spans="1:17" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:19" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="11" t="s">
         <v>15</v>
       </c>
@@ -3055,10 +3281,10 @@
     </row>
   </sheetData>
   <mergeCells count="4">
-    <mergeCell ref="A1:Q1"/>
     <mergeCell ref="A47:Q47"/>
     <mergeCell ref="A48:Q48"/>
     <mergeCell ref="A49:Q49"/>
+    <mergeCell ref="A1:S1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
